--- a/Assets/StreamingAssets/Chairman.xlsx
+++ b/Assets/StreamingAssets/Chairman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022SchoolHistoryMuseum(Unity2020.3.41)20240506\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shine\112-1 GameProject\University-History-Museums\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AB102-C16C-4B89-A9E5-780BAE8BC5E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283B4DDF-52C9-4860-8F12-D1F597366D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二層頁面" sheetId="2" r:id="rId1"/>
@@ -116,31 +116,32 @@
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">經歷
-–瑪林國際有限公司
-–布瑞特運動用品國際行銷公司
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經歷
-–板信資產管理(股)公司董事
-–板信商業銀行副總經理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任期：87.11.12–90.11.11
       91.2.2–94.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任期：110.5.1–112.4.30
-      102.6.7–106.6.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任期：98.5.23–102.5.23
       102.6.7–106.6.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經歷
+–板信資產管理(股)公司董事(現任)
+–板信商業銀行副總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">經歷
+–瑪林國際有限公司總經理
+–布瑞特運動用品國際行銷公司總經理
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任期：
+110.5.1–111.12.09
+111.12.10–113.12.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +266,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -597,9 +598,9 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -613,8 +614,8 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
@@ -643,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -655,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
